--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cd59b-Cd2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cd59b-Cd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>Cd2</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,247 +528,1115 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.522667172780245</v>
+        <v>0.5944396666666667</v>
       </c>
       <c r="H2">
-        <v>0.522667172780245</v>
+        <v>1.783319</v>
       </c>
       <c r="I2">
-        <v>0.15727525518317</v>
+        <v>0.1224709348382317</v>
       </c>
       <c r="J2">
-        <v>0.15727525518317</v>
+        <v>0.1224709348382316</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.891606320813825</v>
+        <v>0.3942186666666667</v>
       </c>
       <c r="N2">
-        <v>0.891606320813825</v>
+        <v>1.182656</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2670650699223005</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2670650699223005</v>
       </c>
       <c r="Q2">
-        <v>0.466013354932758</v>
+        <v>0.2343392128071111</v>
       </c>
       <c r="R2">
-        <v>0.466013354932758</v>
+        <v>2.109052915264</v>
       </c>
       <c r="S2">
-        <v>0.15727525518317</v>
+        <v>0.03270770877602185</v>
       </c>
       <c r="T2">
-        <v>0.15727525518317</v>
+        <v>0.03270770877602184</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.891416929504334</v>
+        <v>0.5944396666666667</v>
       </c>
       <c r="H3">
-        <v>0.891416929504334</v>
+        <v>1.783319</v>
       </c>
       <c r="I3">
-        <v>0.2682353749454589</v>
+        <v>0.1224709348382317</v>
       </c>
       <c r="J3">
-        <v>0.2682353749454589</v>
+        <v>0.1224709348382316</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.891606320813825</v>
+        <v>1.019602666666667</v>
       </c>
       <c r="N3">
-        <v>0.891606320813825</v>
+        <v>3.058808</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.6907340531810536</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.6907340531810536</v>
       </c>
       <c r="Q3">
-        <v>0.7947929688265161</v>
+        <v>0.6060922693057778</v>
       </c>
       <c r="R3">
-        <v>0.7947929688265161</v>
+        <v>5.454830423752</v>
       </c>
       <c r="S3">
-        <v>0.2682353749454589</v>
+        <v>0.08459484521768446</v>
       </c>
       <c r="T3">
-        <v>0.2682353749454589</v>
+        <v>0.08459484521768444</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.866919535847216</v>
+        <v>0.5944396666666667</v>
       </c>
       <c r="H4">
-        <v>0.866919535847216</v>
+        <v>1.783319</v>
       </c>
       <c r="I4">
-        <v>0.2608638887695598</v>
+        <v>0.1224709348382317</v>
       </c>
       <c r="J4">
-        <v>0.2608638887695598</v>
+        <v>0.1224709348382316</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.891606320813825</v>
+        <v>0.06229333333333333</v>
       </c>
       <c r="N4">
-        <v>0.891606320813825</v>
+        <v>0.18688</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.04220087689664579</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.04220087689664578</v>
       </c>
       <c r="Q4">
-        <v>0.7729509377983651</v>
+        <v>0.03702962830222222</v>
       </c>
       <c r="R4">
-        <v>0.7729509377983651</v>
+        <v>0.33326665472</v>
       </c>
       <c r="S4">
-        <v>0.2608638887695598</v>
+        <v>0.005168380844525342</v>
       </c>
       <c r="T4">
-        <v>0.2608638887695598</v>
+        <v>0.00516838084452534</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.958062</v>
+      </c>
+      <c r="H5">
+        <v>2.874186</v>
+      </c>
+      <c r="I5">
+        <v>0.1973871451596476</v>
+      </c>
+      <c r="J5">
+        <v>0.1973871451596476</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.3942186666666667</v>
+      </c>
+      <c r="N5">
+        <v>1.182656</v>
+      </c>
+      <c r="O5">
+        <v>0.2670650699223005</v>
+      </c>
+      <c r="P5">
+        <v>0.2670650699223005</v>
+      </c>
+      <c r="Q5">
+        <v>0.377685924224</v>
+      </c>
+      <c r="R5">
+        <v>3.399173318016</v>
+      </c>
+      <c r="S5">
+        <v>0.05271521172382457</v>
+      </c>
+      <c r="T5">
+        <v>0.05271521172382457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.958062</v>
+      </c>
+      <c r="H6">
+        <v>2.874186</v>
+      </c>
+      <c r="I6">
+        <v>0.1973871451596476</v>
+      </c>
+      <c r="J6">
+        <v>0.1973871451596476</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.019602666666667</v>
+      </c>
+      <c r="N6">
+        <v>3.058808</v>
+      </c>
+      <c r="O6">
+        <v>0.6907340531810536</v>
+      </c>
+      <c r="P6">
+        <v>0.6907340531810536</v>
+      </c>
+      <c r="Q6">
+        <v>0.9768425700319999</v>
+      </c>
+      <c r="R6">
+        <v>8.791583130288</v>
+      </c>
+      <c r="S6">
+        <v>0.1363420228219604</v>
+      </c>
+      <c r="T6">
+        <v>0.1363420228219604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.958062</v>
+      </c>
+      <c r="H7">
+        <v>2.874186</v>
+      </c>
+      <c r="I7">
+        <v>0.1973871451596476</v>
+      </c>
+      <c r="J7">
+        <v>0.1973871451596476</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.06229333333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.18688</v>
+      </c>
+      <c r="O7">
+        <v>0.04220087689664579</v>
+      </c>
+      <c r="P7">
+        <v>0.04220087689664578</v>
+      </c>
+      <c r="Q7">
+        <v>0.05968087552</v>
+      </c>
+      <c r="R7">
+        <v>0.53712787968</v>
+      </c>
+      <c r="S7">
+        <v>0.008329910613862642</v>
+      </c>
+      <c r="T7">
+        <v>0.008329910613862641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.2644406666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.793322</v>
+      </c>
+      <c r="I8">
+        <v>0.05448205675357892</v>
+      </c>
+      <c r="J8">
+        <v>0.05448205675357891</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.3942186666666667</v>
+      </c>
+      <c r="N8">
+        <v>1.182656</v>
+      </c>
+      <c r="O8">
+        <v>0.2670650699223005</v>
+      </c>
+      <c r="P8">
+        <v>0.2670650699223005</v>
+      </c>
+      <c r="Q8">
+        <v>0.1042474470257778</v>
+      </c>
+      <c r="R8">
+        <v>0.9382270232319999</v>
+      </c>
+      <c r="S8">
+        <v>0.0145502542964053</v>
+      </c>
+      <c r="T8">
+        <v>0.01455025429640529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.2644406666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.793322</v>
+      </c>
+      <c r="I9">
+        <v>0.05448205675357892</v>
+      </c>
+      <c r="J9">
+        <v>0.05448205675357891</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.019602666666667</v>
+      </c>
+      <c r="N9">
+        <v>3.058808</v>
+      </c>
+      <c r="O9">
+        <v>0.6907340531810536</v>
+      </c>
+      <c r="P9">
+        <v>0.6907340531810536</v>
+      </c>
+      <c r="Q9">
+        <v>0.2696244089084444</v>
+      </c>
+      <c r="R9">
+        <v>2.426619680176</v>
+      </c>
+      <c r="S9">
+        <v>0.03763261188703976</v>
+      </c>
+      <c r="T9">
+        <v>0.03763261188703976</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.2644406666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.793322</v>
+      </c>
+      <c r="I10">
+        <v>0.05448205675357892</v>
+      </c>
+      <c r="J10">
+        <v>0.05448205675357891</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.06229333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.18688</v>
+      </c>
+      <c r="O10">
+        <v>0.04220087689664579</v>
+      </c>
+      <c r="P10">
+        <v>0.04220087689664578</v>
+      </c>
+      <c r="Q10">
+        <v>0.01647289059555555</v>
+      </c>
+      <c r="R10">
+        <v>0.14825601536</v>
+      </c>
+      <c r="S10">
+        <v>0.002299190570133853</v>
+      </c>
+      <c r="T10">
+        <v>0.002299190570133852</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.08434833333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.253045</v>
+      </c>
+      <c r="I11">
+        <v>0.01737807857491584</v>
+      </c>
+      <c r="J11">
+        <v>0.01737807857491583</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.3942186666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.182656</v>
+      </c>
+      <c r="O11">
+        <v>0.2670650699223005</v>
+      </c>
+      <c r="P11">
+        <v>0.2670650699223005</v>
+      </c>
+      <c r="Q11">
+        <v>0.03325168750222222</v>
+      </c>
+      <c r="R11">
+        <v>0.29926518752</v>
+      </c>
+      <c r="S11">
+        <v>0.00464107776972513</v>
+      </c>
+      <c r="T11">
+        <v>0.004641077769725129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.08434833333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.253045</v>
+      </c>
+      <c r="I12">
+        <v>0.01737807857491584</v>
+      </c>
+      <c r="J12">
+        <v>0.01737807857491583</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.019602666666667</v>
+      </c>
+      <c r="N12">
+        <v>3.058808</v>
+      </c>
+      <c r="O12">
+        <v>0.6907340531810536</v>
+      </c>
+      <c r="P12">
+        <v>0.6907340531810536</v>
+      </c>
+      <c r="Q12">
+        <v>0.08600178559555556</v>
+      </c>
+      <c r="R12">
+        <v>0.7740160703600001</v>
+      </c>
+      <c r="S12">
+        <v>0.01200363065055044</v>
+      </c>
+      <c r="T12">
+        <v>0.01200363065055044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.08434833333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.253045</v>
+      </c>
+      <c r="I13">
+        <v>0.01737807857491584</v>
+      </c>
+      <c r="J13">
+        <v>0.01737807857491583</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.06229333333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.18688</v>
+      </c>
+      <c r="O13">
+        <v>0.04220087689664579</v>
+      </c>
+      <c r="P13">
+        <v>0.04220087689664578</v>
+      </c>
+      <c r="Q13">
+        <v>0.005254338844444445</v>
+      </c>
+      <c r="R13">
+        <v>0.0472890496</v>
+      </c>
+      <c r="S13">
+        <v>0.0007333701546402609</v>
+      </c>
+      <c r="T13">
+        <v>0.0007333701546402606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.894193</v>
+      </c>
+      <c r="H14">
+        <v>2.682579</v>
+      </c>
+      <c r="I14">
+        <v>0.1842283729985542</v>
+      </c>
+      <c r="J14">
+        <v>0.1842283729985542</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3942186666666667</v>
+      </c>
+      <c r="N14">
+        <v>1.182656</v>
+      </c>
+      <c r="O14">
+        <v>0.2670650699223005</v>
+      </c>
+      <c r="P14">
+        <v>0.2670650699223005</v>
+      </c>
+      <c r="Q14">
+        <v>0.3525075722026667</v>
+      </c>
+      <c r="R14">
+        <v>3.172568149824</v>
+      </c>
+      <c r="S14">
+        <v>0.04920096331653052</v>
+      </c>
+      <c r="T14">
+        <v>0.04920096331653052</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.894193</v>
+      </c>
+      <c r="H15">
+        <v>2.682579</v>
+      </c>
+      <c r="I15">
+        <v>0.1842283729985542</v>
+      </c>
+      <c r="J15">
+        <v>0.1842283729985542</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.019602666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.058808</v>
+      </c>
+      <c r="O15">
+        <v>0.6907340531810536</v>
+      </c>
+      <c r="P15">
+        <v>0.6907340531810536</v>
+      </c>
+      <c r="Q15">
+        <v>0.9117215673146667</v>
+      </c>
+      <c r="R15">
+        <v>8.205494105832001</v>
+      </c>
+      <c r="S15">
+        <v>0.1272528107922423</v>
+      </c>
+      <c r="T15">
+        <v>0.1272528107922423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.894193</v>
+      </c>
+      <c r="H16">
+        <v>2.682579</v>
+      </c>
+      <c r="I16">
+        <v>0.1842283729985542</v>
+      </c>
+      <c r="J16">
+        <v>0.1842283729985542</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.06229333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.18688</v>
+      </c>
+      <c r="O16">
+        <v>0.04220087689664579</v>
+      </c>
+      <c r="P16">
+        <v>0.04220087689664578</v>
+      </c>
+      <c r="Q16">
+        <v>0.05570226261333333</v>
+      </c>
+      <c r="R16">
+        <v>0.50132036352</v>
+      </c>
+      <c r="S16">
+        <v>0.007774598889781327</v>
+      </c>
+      <c r="T16">
+        <v>0.007774598889781326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.04226022922943</v>
-      </c>
-      <c r="H5">
-        <v>1.04226022922943</v>
-      </c>
-      <c r="I5">
-        <v>0.3136254811018112</v>
-      </c>
-      <c r="J5">
-        <v>0.3136254811018112</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.891606320813825</v>
-      </c>
-      <c r="N5">
-        <v>0.891606320813825</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.929285808313826</v>
-      </c>
-      <c r="R5">
-        <v>0.929285808313826</v>
-      </c>
-      <c r="S5">
-        <v>0.3136254811018112</v>
-      </c>
-      <c r="T5">
-        <v>0.3136254811018112</v>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.058236666666667</v>
+      </c>
+      <c r="H17">
+        <v>6.17471</v>
+      </c>
+      <c r="I17">
+        <v>0.4240534116750718</v>
+      </c>
+      <c r="J17">
+        <v>0.4240534116750717</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.3942186666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.182656</v>
+      </c>
+      <c r="O17">
+        <v>0.2670650699223005</v>
+      </c>
+      <c r="P17">
+        <v>0.2670650699223005</v>
+      </c>
+      <c r="Q17">
+        <v>0.8113953144177778</v>
+      </c>
+      <c r="R17">
+        <v>7.30255782976</v>
+      </c>
+      <c r="S17">
+        <v>0.1132498540397931</v>
+      </c>
+      <c r="T17">
+        <v>0.1132498540397931</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.058236666666667</v>
+      </c>
+      <c r="H18">
+        <v>6.17471</v>
+      </c>
+      <c r="I18">
+        <v>0.4240534116750718</v>
+      </c>
+      <c r="J18">
+        <v>0.4240534116750717</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.019602666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.058808</v>
+      </c>
+      <c r="O18">
+        <v>0.6907340531810536</v>
+      </c>
+      <c r="P18">
+        <v>0.6907340531810536</v>
+      </c>
+      <c r="Q18">
+        <v>2.098583593964444</v>
+      </c>
+      <c r="R18">
+        <v>18.88725234568</v>
+      </c>
+      <c r="S18">
+        <v>0.2929081318115763</v>
+      </c>
+      <c r="T18">
+        <v>0.2929081318115762</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.058236666666667</v>
+      </c>
+      <c r="H19">
+        <v>6.17471</v>
+      </c>
+      <c r="I19">
+        <v>0.4240534116750718</v>
+      </c>
+      <c r="J19">
+        <v>0.4240534116750717</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.06229333333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.18688</v>
+      </c>
+      <c r="O19">
+        <v>0.04220087689664579</v>
+      </c>
+      <c r="P19">
+        <v>0.04220087689664578</v>
+      </c>
+      <c r="Q19">
+        <v>0.1282144227555556</v>
+      </c>
+      <c r="R19">
+        <v>1.1539298048</v>
+      </c>
+      <c r="S19">
+        <v>0.01789542582370236</v>
+      </c>
+      <c r="T19">
+        <v>0.01789542582370236</v>
       </c>
     </row>
   </sheetData>
